--- a/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem2/incorrect_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem2/incorrect_predictions.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Cannot track subject Subject too Large Move Away and retry .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Cannot track subject</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,46 +487,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Cannot track subject Subject too Large Move Away and retry .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport</t>
+          <t>Subject too Large</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Cannot track subject Subject too Large Move Away and retry .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Airports Power Plant)</t>
+          <t>Cannot track subject Subject too Large</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F) Warm battery to above 25°C (77F) before flying .</t>
+          <t>Switched to gimbal free mode Use the RC to control aircraft yaw .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F)</t>
+          <t>Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) Please fly with caution .</t>
+          <t>Compass Interference Temp Max Altitude: nnn .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D)</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,41 +587,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) Please fly with caution .</t>
+          <t>Compass Interference Temp Max Altitude: nnn .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class</t>
+          <t>Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
+          <t>Compass Interference Temp Max Altitude: nnn .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cannot track subject</t>
+          <t>Compass Interference Temp</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -631,22 +631,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
+          <t>Compass Interference Temp Max Altitude: nnn .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Subject too Small</t>
+          <t>Max Altitude: nnn</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -656,77 +656,77 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
+          <t>Your aircraft has entered a Warning Zone (Class D) Please fly with caution .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Small</t>
+          <t>Your aircraft has entered a Warning Zone (Class D)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Your aircraft has entered a Warning Zone (Class D) Please fly with caution .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Your aircraft has entered a Warning Zone (Class</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Warning: Battery Temperature Below 15°C (59F) Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Temp Max Altitude 98ft</t>
+          <t>Warning: Battery Temperature Below 15°C (59F)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,17 +746,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Compass Interference Temp</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -771,32 +771,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Max Altitude 98ft</t>
+          <t>Temp Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Large Move Away and retry .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cannot track subject</t>
+          <t>Compass Interference Temp</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -806,22 +806,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Large Move Away and retry .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Subject too Large</t>
+          <t>Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -841,42 +841,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Large Move Away and retry .</t>
+          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Large</t>
+          <t>Cannot track subject</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude: nnn .</t>
+          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Subject too Small</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -887,71 +887,71 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude: nnn .</t>
+          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Temp Max Altitude: nnn</t>
+          <t>Cannot track subject Subject too Small</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude: nnn .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Compass Interference Temp</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude: nnn .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Max Altitude: nnn</t>
+          <t>GEO: You are in a Warning Zone (Airport</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,46 +962,46 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Airports Power Plant)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode Use the RC to control aircraft yaw .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Use the RC to control aircraft yaw</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
